--- a/Time schedule - Ramon.xlsx
+++ b/Time schedule - Ramon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramongonzalezordaz/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramongonzalezordaz/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCB83F5-26B0-904C-9C15-4F045F2E95B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4305710A-6BF9-B74D-9DE6-05822D8288B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12380" xr2:uid="{23D802BE-C2F2-47E1-AC02-DBB2F2D9C8A6}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="9">
   <si>
     <t>Project IT1F1 Time schedule</t>
   </si>
@@ -53,6 +52,12 @@
   </si>
   <si>
     <t>Total time spend in hours</t>
+  </si>
+  <si>
+    <t>.5</t>
+  </si>
+  <si>
+    <t>9.5</t>
   </si>
 </sst>
 </file>
@@ -365,40 +370,28 @@
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -407,31 +400,43 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -758,474 +763,480 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="22" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="14" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14" t="s">
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14" t="s">
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="23" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="15" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15" t="s">
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15" t="s">
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15" t="s">
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="8">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="12">
         <v>2</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12">
         <v>3</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="17">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="2">
         <v>4</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="8">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="12">
         <v>5</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12">
         <v>6</v>
       </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8">
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12">
         <v>7</v>
       </c>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8">
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12">
         <v>8</v>
       </c>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="16" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="24" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="16" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16" t="s">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16" t="s">
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16" t="s">
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="8">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="12">
         <v>4</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12">
         <v>4</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="2">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="7" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="19" t="s">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="7" t="s">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7" t="s">
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7" t="s">
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7" t="s">
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
+      <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="8">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="12">
         <v>4</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12">
         <v>4</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="9" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="20" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="9" t="s">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9" t="s">
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9" t="s">
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9" t="s">
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
     </row>
     <row r="10" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="16">
         <v>0.5</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
         <v>0.5</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
     </row>
     <row r="11" spans="1:26" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="11" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="11" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="21" t="s">
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="11" t="s">
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="11" t="s">
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="11" t="s">
+      <c r="S11" s="18"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="V11" s="12"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="11" t="s">
+      <c r="V11" s="18"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="13"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="19"/>
     </row>
     <row r="12" spans="1:26" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E13" s="1"/>
@@ -1348,97 +1359,176 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="3" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="3" t="s">
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="18" t="s">
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="3" t="s">
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="3" t="s">
+      <c r="P19" s="22"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="3" t="s">
+      <c r="S19" s="22"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="V19" s="4"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="3" t="s">
+      <c r="V19" s="22"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="5"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="23"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
+      <c r="A20" s="2">
         <f>SUM(A6+A8+A10+A12)</f>
         <v>7</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="6">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="24">
         <v>8.5</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6">
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24">
         <v>8.5</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="17">
-        <f>SUM(K6+K8+K10+K12)</f>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="24">
         <v>0</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="6">
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24">
         <v>0</v>
       </c>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6">
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24">
         <v>0</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6">
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24">
         <v>0</v>
       </c>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="X1:Z2"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U1:W2"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="O1:Q2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K1:N2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="H12:J12"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A5:D5"/>
@@ -1463,86 +1553,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="O1:Q2"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K1:N2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U1:W2"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="R1:T2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="X1:Z2"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="X6:Z6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
